--- a/Files/Excel/BMW.xlsx
+++ b/Files/Excel/BMW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E8E91-4D5D-49FE-99B4-67CC41C37190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79F5FE-6F6D-4E82-9550-B95EB27D3C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,111 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Veículos conceituais da BMW</t>
-  </si>
-  <si>
-    <t>Aeronaves da BMW</t>
-  </si>
-  <si>
-    <t>Carros de Fórmula 1 da BMW</t>
-  </si>
-  <si>
-    <t>BMW 328</t>
-  </si>
-  <si>
-    <t>BMW 600</t>
-  </si>
-  <si>
-    <t>BMW 700</t>
-  </si>
-  <si>
-    <t>BMW ActiveE</t>
-  </si>
-  <si>
-    <t>BMW ActiveHybrid 7</t>
-  </si>
-  <si>
-    <t>BMW Concept CS</t>
-  </si>
-  <si>
-    <t>BMW i8</t>
-  </si>
-  <si>
-    <t>BMW Compact</t>
-  </si>
-  <si>
-    <t>BMW H2R</t>
-  </si>
-  <si>
-    <t>BMW i3</t>
-  </si>
-  <si>
     <t>Isetta</t>
   </si>
   <si>
-    <t>BMW M1</t>
-  </si>
-  <si>
-    <t>BMW M3</t>
-  </si>
-  <si>
-    <t>BMW M5</t>
-  </si>
-  <si>
-    <t>BMW M6</t>
-  </si>
-  <si>
-    <t>BMW Nazca C2</t>
-  </si>
-  <si>
-    <t>BMW Série 1</t>
-  </si>
-  <si>
-    <t>BMW Série 1 (F20)</t>
-  </si>
-  <si>
-    <t>BMW Série 3</t>
-  </si>
-  <si>
-    <t>BMW Série 3 (E30)</t>
-  </si>
-  <si>
-    <t>BMW Série 3 (E46)</t>
-  </si>
-  <si>
-    <t>BMW Série 3 (F30)</t>
-  </si>
-  <si>
-    <t>BMW Série 3 (G20)</t>
-  </si>
-  <si>
-    <t>BMW Série 7 (E32)</t>
-  </si>
-  <si>
-    <t>BMW X2</t>
-  </si>
-  <si>
-    <t>BMW X3</t>
-  </si>
-  <si>
-    <t>BMW Z1</t>
-  </si>
-  <si>
-    <t>BMW Z3</t>
-  </si>
-  <si>
-    <t>BMW Z4</t>
-  </si>
-  <si>
-    <t>BMW Z8 (E52)</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>ActiveHybrid</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Série</t>
+  </si>
+  <si>
+    <t>Compact</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Concept CS</t>
+  </si>
+  <si>
+    <t>Nazca C</t>
+  </si>
+  <si>
+    <t>H R</t>
+  </si>
+  <si>
+    <t>Série F</t>
+  </si>
+  <si>
+    <t>Série E</t>
+  </si>
+  <si>
+    <t>Série G</t>
+  </si>
+  <si>
+    <t>Z E</t>
   </si>
 </sst>
 </file>
@@ -487,284 +442,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>700</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
         <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
